--- a/old/Team03Report.xlsx
+++ b/old/Team03Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zildj\Documents\!School\6th Semester\Agile Methods\SSW555_Spring19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan Abel\Desktop\SSW555_Spring19\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F280A875-6904-4B84-A060-9D9F3CD9105B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5061B-919E-4829-AC04-D34643087739}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="24000" windowHeight="12760" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="246">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -768,6 +768,48 @@
   </si>
   <si>
     <t>11-32</t>
+  </si>
+  <si>
+    <t>eaUserStories.py</t>
+  </si>
+  <si>
+    <t>birthBeforeMarriage</t>
+  </si>
+  <si>
+    <t>birthBeforeDeath</t>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>test_US02</t>
+  </si>
+  <si>
+    <t>test_US03</t>
+  </si>
+  <si>
+    <t>34-48</t>
+  </si>
+  <si>
+    <t>50-64</t>
+  </si>
+  <si>
+    <t>^+Jay</t>
+  </si>
+  <si>
+    <t>jpUserStories.py</t>
+  </si>
+  <si>
+    <t>test_US0</t>
+  </si>
+  <si>
+    <t>test_US</t>
+  </si>
+  <si>
+    <t>jpUserStoreis.py</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1274,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>42045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455</c:v>
+                  <c:v>42059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,10 +1289,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,15 +2186,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4609375" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2169,7 +2211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>182</v>
       </c>
@@ -2186,7 +2228,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>183</v>
       </c>
@@ -2203,7 +2245,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>184</v>
       </c>
@@ -2220,7 +2262,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>185</v>
       </c>
@@ -2237,10 +2279,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2273,16 +2315,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.61328125" customWidth="1"/>
-    <col min="2" max="2" width="7.61328125" customWidth="1"/>
-    <col min="3" max="3" width="25.84375" customWidth="1"/>
-    <col min="4" max="4" width="6.84375" customWidth="1"/>
-    <col min="5" max="5" width="7.61328125" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2299,7 +2341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2316,7 +2358,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2333,7 +2375,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2350,7 +2392,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2367,7 +2409,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2384,7 +2426,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2401,7 +2443,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2418,7 +2460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2435,7 +2477,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -2443,7 +2485,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -2451,7 +2493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -2459,7 +2501,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>123</v>
       </c>
@@ -2467,7 +2509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>125</v>
       </c>
@@ -2475,7 +2517,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>126</v>
       </c>
@@ -2483,7 +2525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -2491,7 +2533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>132</v>
       </c>
@@ -2499,7 +2541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>133</v>
       </c>
@@ -2507,7 +2549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>137</v>
       </c>
@@ -2515,7 +2557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>138</v>
       </c>
@@ -2523,7 +2565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>139</v>
       </c>
@@ -2531,7 +2573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>140</v>
       </c>
@@ -2539,7 +2581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>141</v>
       </c>
@@ -2547,7 +2589,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>142</v>
       </c>
@@ -2555,7 +2597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>143</v>
       </c>
@@ -2563,7 +2605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>144</v>
       </c>
@@ -2571,7 +2613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>145</v>
       </c>
@@ -2579,7 +2621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>146</v>
       </c>
@@ -2587,7 +2629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>147</v>
       </c>
@@ -2595,7 +2637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>148</v>
       </c>
@@ -2603,7 +2645,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>149</v>
       </c>
@@ -2611,7 +2653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>150</v>
       </c>
@@ -2619,7 +2661,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -2641,51 +2683,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3828125" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -2708,7 +2750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -2724,7 +2766,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -2749,7 +2791,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -2774,7 +2816,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -2799,7 +2841,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -2833,23 +2875,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2868,38 +2910,49 @@
       <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>40442</v>
+        <v>42045</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>40455</v>
+        <v>42059</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="16">
+        <v>200</v>
       </c>
       <c r="F3" s="7">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2915,30 +2968,30 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="O4" sqref="O4:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.61328125" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.84375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.4609375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.81640625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +3038,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -3032,7 +3085,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3051,8 +3104,35 @@
       <c r="F3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -3071,8 +3151,35 @@
       <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -3091,8 +3198,20 @@
       <c r="F5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -3111,8 +3230,20 @@
       <c r="F6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -3159,7 +3290,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -3206,7 +3337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3253,30 +3384,30 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>213</v>
       </c>
@@ -3290,42 +3421,230 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="2.26953125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" s="22"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O9" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3342,9 +3661,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3387,9 +3706,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3432,13 +3751,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -3449,7 +3768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>112</v>
       </c>
@@ -3460,7 +3779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>113</v>
       </c>
@@ -3471,7 +3790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>114</v>
       </c>
@@ -3482,7 +3801,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>115</v>
       </c>
@@ -3493,7 +3812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>116</v>
       </c>
@@ -3504,7 +3823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>117</v>
       </c>
@@ -3515,7 +3834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>118</v>
       </c>
@@ -3526,7 +3845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>119</v>
       </c>
@@ -3537,7 +3856,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>120</v>
       </c>
@@ -3548,7 +3867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>121</v>
       </c>
@@ -3559,7 +3878,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>122</v>
       </c>
@@ -3570,7 +3889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>123</v>
       </c>
@@ -3581,7 +3900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>124</v>
       </c>
@@ -3592,7 +3911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>125</v>
       </c>
@@ -3603,7 +3922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>126</v>
       </c>
@@ -3614,7 +3933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>127</v>
       </c>
@@ -3625,7 +3944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>128</v>
       </c>
@@ -3636,7 +3955,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>129</v>
       </c>
@@ -3647,7 +3966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>130</v>
       </c>
@@ -3658,7 +3977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>131</v>
       </c>
@@ -3669,7 +3988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>132</v>
       </c>
@@ -3680,7 +3999,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>133</v>
       </c>
@@ -3691,7 +4010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>134</v>
       </c>
@@ -3702,7 +4021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>135</v>
       </c>
@@ -3713,7 +4032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>136</v>
       </c>
@@ -3724,7 +4043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>137</v>
       </c>
@@ -3735,7 +4054,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>138</v>
       </c>
@@ -3746,7 +4065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>139</v>
       </c>
@@ -3757,7 +4076,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>140</v>
       </c>
@@ -3768,7 +4087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>141</v>
       </c>
@@ -3779,7 +4098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>142</v>
       </c>
@@ -3790,7 +4109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>143</v>
       </c>
@@ -3801,7 +4120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>144</v>
       </c>
@@ -3812,7 +4131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>145</v>
       </c>
@@ -3823,7 +4142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>146</v>
       </c>
@@ -3834,7 +4153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>147</v>
       </c>
@@ -3845,7 +4164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>148</v>
       </c>
@@ -3856,7 +4175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>149</v>
       </c>
@@ -3867,7 +4186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>150</v>
       </c>
@@ -3878,7 +4197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>151</v>
       </c>
@@ -3889,7 +4208,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>152</v>
       </c>
@@ -3900,7 +4219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>153</v>
       </c>
